--- a/data/income_statement/2digits/size/93_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/93_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>93-Sports activities and amusement and recreation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>93-Sports activities and amusement and recreation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,293 +841,333 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>143548.08991</v>
+        <v>153573.73639</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>160913.84258</v>
+        <v>175291.67438</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>211186.92504</v>
+        <v>230186.32217</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>236779.90239</v>
+        <v>257917.07019</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>224051.75695</v>
+        <v>249611.11534</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>341992.23702</v>
+        <v>374542.369</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>302413.78612</v>
+        <v>353108.87487</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>299244.1901599999</v>
+        <v>360307.76151</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>323389.42356</v>
+        <v>396534.36205</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>585792.60255</v>
+        <v>650736.26644</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>660328.1306800001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>760965.14012</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>631165.934</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>134278.37982</v>
+        <v>143907.59238</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>150980.58236</v>
+        <v>164803.07613</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>192609.57145</v>
+        <v>210114.21689</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>222521.69607</v>
+        <v>241315.31655</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>211942.86524</v>
+        <v>235227.03716</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>323288.11321</v>
+        <v>353021.34502</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>287488.19048</v>
+        <v>333108.50739</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>276928.4856</v>
+        <v>331616.05186</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>302238.63959</v>
+        <v>366893.47748</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>528933.9588</v>
+        <v>584888.57854</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>597836.4166700001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>685656.26304</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>573183.383</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>3342.13849</v>
+        <v>3671.81886</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>2805.20226</v>
+        <v>2829.47549</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>4004.43367</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4301.10509</v>
+        <v>4379.93798</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>4109.04227</v>
+        <v>4245.086609999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>9605.292589999999</v>
+        <v>10087.01783</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4563.46444</v>
+        <v>5497.12571</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>10434.79346</v>
+        <v>12068.70886</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>5853.28267</v>
+        <v>8249.26598</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>27791.56297</v>
+        <v>32817.0613</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>26237.14366</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>30728.10123</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>21434.793</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>5927.571599999999</v>
+        <v>5994.325150000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>7128.05796</v>
+        <v>7659.12276</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>14572.91992</v>
+        <v>16067.67161</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>9957.10123</v>
+        <v>12221.81566</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7999.849439999999</v>
+        <v>10138.99157</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>9098.83122</v>
+        <v>11434.00615</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>10362.1312</v>
+        <v>14503.24177</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>11880.9111</v>
+        <v>16623.00079</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>15297.5013</v>
+        <v>21391.61859</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>29067.08078</v>
+        <v>33030.6266</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>36254.57034999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>44580.77584999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>36547.758</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>132.53245</v>
+        <v>145.26405</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>140.79114</v>
+        <v>443.9457200000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>562.72193</v>
+        <v>666.0872200000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>593.98618</v>
+        <v>719.81354</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>589.6335800000001</v>
+        <v>689.1404</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>486.95113</v>
+        <v>622.43228</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>735.80824</v>
+        <v>1034.94894</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>353.955</v>
+        <v>480.03433</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>287.9021700000001</v>
+        <v>2366.0766</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2006.9271</v>
+        <v>2534.07037</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>4243.67544</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>4474.79747</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>44923.595</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>125.43729</v>
+        <v>127.08929</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>122.98256</v>
+        <v>422.94433</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>438.3291600000001</v>
+        <v>540.22676</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>589.53399</v>
+        <v>715.36135</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>562.2672700000001</v>
+        <v>660.5370899999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>383.5875</v>
+        <v>494.29652</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>683.4433200000001</v>
+        <v>934.26581</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>344.11095</v>
+        <v>468.90228</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>260.16869</v>
+        <v>2337.66412</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>1969.26588</v>
+        <v>2496.40915</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2004.48008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2123.03411</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>43792.605</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>7.09516</v>
+        <v>18.17476</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5.481269999999999</v>
+        <v>6.39476</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>123.09612</v>
+        <v>124.56381</v>
       </c>
       <c r="F11" s="48" t="n">
         <v>1.06188</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>22.30052</v>
+        <v>23.53752</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>95.07558999999999</v>
+        <v>96.21359</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>35.23555</v>
+        <v>83.55376</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>9.044049999999999</v>
+        <v>10.33205</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>0.45032</v>
+        <v>1.12932</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>16.45439</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2218.00892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2330.57692</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>1109.427</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>12.32731</v>
+        <v>14.60663</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>1.29665</v>
@@ -1238,7 +1179,7 @@
         <v>5.06579</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>8.288039999999999</v>
+        <v>31.92217</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>17.12937</v>
@@ -1255,206 +1196,236 @@
       <c r="M12" s="48" t="n">
         <v>21.18644</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>21.563</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>143415.55746</v>
+        <v>153428.47234</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>160773.05144</v>
+        <v>174847.72866</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>210624.20311</v>
+        <v>229520.23495</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>236185.91621</v>
+        <v>257197.25665</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>223462.12337</v>
+        <v>248921.97494</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>341505.28589</v>
+        <v>373919.9367200001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>301677.97788</v>
+        <v>352073.92593</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>298890.23516</v>
+        <v>359827.7271799999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>323101.52139</v>
+        <v>394168.28545</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>583785.6754500001</v>
+        <v>648202.1960699999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>656084.45524</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>756490.34265</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>586242.339</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>98663.07741</v>
+        <v>107810.0713</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>109886.22962</v>
+        <v>123705.20344</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>145017.45182</v>
+        <v>157956.55534</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>153204.97799</v>
+        <v>166474.34096</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>155762.47153</v>
+        <v>175160.12157</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>222003.46588</v>
+        <v>247489.53735</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>224733.58288</v>
+        <v>260381.85511</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>226067.15429</v>
+        <v>269882.61613</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>234946.16758</v>
+        <v>290513.22803</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>448117.48607</v>
+        <v>490904.53262</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>503498.79959</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>581335.50741</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>481065.654</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6397.94118</v>
+        <v>7292.79808</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5344.36275</v>
+        <v>5852.685860000001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>6195.59307</v>
+        <v>7277.08257</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3936.27856</v>
+        <v>4713.52307</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7788.61772</v>
+        <v>8632.785619999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>11257.70735</v>
+        <v>12647.79713</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>8441.18723</v>
+        <v>10453.63523</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>7026.15083</v>
+        <v>9770.550070000001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>9655.43404</v>
+        <v>13490.76629</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>24590.62877</v>
+        <v>27816.37528</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>30914.8584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>35682.67093</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>35227.362</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>31355.14315</v>
+        <v>33185.12352</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>27557.15617</v>
+        <v>29695.63708</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>34800.31551</v>
+        <v>36522.10659</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>55941.37484999999</v>
+        <v>57997.90865</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>38267.4264</v>
+        <v>42521.10324</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>83352.31476000001</v>
+        <v>87417.96300999999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>58425.65372</v>
+        <v>67525.89856</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>60124.89894000001</v>
+        <v>68579.2481</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>60189.77787000001</v>
+        <v>70389.99378</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>126916.27259</v>
+        <v>141550.64184</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>119521.18425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>135352.64844</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>132693.695</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>60846.82388</v>
+        <v>67268.98050000001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>76566.07237000001</v>
+        <v>87738.24216999998</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>103526.76325</v>
+        <v>113621.20293</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>93103.67922000001</v>
+        <v>103539.26388</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>108857.76327</v>
+        <v>123137.76857</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>126558.02424</v>
+        <v>146588.35768</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>155300.59638</v>
+        <v>179266.93121</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>155817.52889</v>
+        <v>188129.61648</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>163675.02807</v>
+        <v>204379.8924</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>293604.46711</v>
+        <v>318315.27134</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>347556.25437</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>402673.37978</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>307339.453</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>63.1692</v>
@@ -1463,115 +1434,130 @@
         <v>418.6383299999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>494.77999</v>
+        <v>536.1632499999999</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>223.64536</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>848.66414</v>
+        <v>868.46414</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>835.41953</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>2566.14555</v>
+        <v>3135.39011</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>3098.57563</v>
+        <v>3403.20148</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1425.9276</v>
+        <v>2252.57556</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>3006.1176</v>
+        <v>3222.24416</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>5506.502570000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>7626.80826</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>5805.144</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>44752.48005</v>
+        <v>45618.40104</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>50886.82182</v>
+        <v>51142.52522</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>65606.75129</v>
+        <v>71563.67961000001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>82980.93822</v>
+        <v>90722.91568999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>67699.65184000001</v>
+        <v>73761.85337000001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>119501.82001</v>
+        <v>126430.39937</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>76944.395</v>
+        <v>91692.07081999999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>72823.08087000001</v>
+        <v>89945.11104999999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>88155.35381</v>
+        <v>103655.05742</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>135668.18938</v>
+        <v>157297.66345</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>152585.65565</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>175154.83524</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>105176.685</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>53346.27904</v>
+        <v>61849.02397</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>62891.49496</v>
+        <v>69860.37693000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>80792.4608</v>
+        <v>90515.19016999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>100159.57803</v>
+        <v>108979.07537</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>91113.24883</v>
+        <v>103401.88938</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>147369.64692</v>
+        <v>171640.0573</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>112659.73399</v>
+        <v>139096.06193</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>129114.44649</v>
+        <v>156677.68538</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>147854.58325</v>
+        <v>182273.5229</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>226233.67763</v>
+        <v>256851.31858</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>261302.01821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>304478.4497</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>273739.12</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>15.68579</v>
@@ -1583,7 +1569,7 @@
         <v>29.53003</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>33.76614</v>
+        <v>120.98554</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>758.44039</v>
@@ -1604,169 +1590,194 @@
         <v>23.28972</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>0.14037</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>62.83373</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>251.648</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>3586.77785</v>
+        <v>3972.02047</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4939.74884</v>
+        <v>5685.28858</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>5102.07929</v>
+        <v>5382.82254</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>5501.22392</v>
+        <v>5967.460849999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>7606.75516</v>
+        <v>8965.29558</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>10861.87159</v>
+        <v>11443.8347</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>10350.45827</v>
+        <v>11519.50886</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>12542.15423</v>
+        <v>13672.41542</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>10207.39745</v>
+        <v>12214.63299</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>22359.79679</v>
+        <v>24894.89123</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>20714.80232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25147.07303</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>22038.289</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>49743.8154</v>
+        <v>57861.31771</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>57896.24885</v>
+        <v>64119.59108</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>75660.85148</v>
+        <v>85102.8376</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>94624.58796999999</v>
+        <v>102890.62898</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>82748.05328000001</v>
+        <v>93678.15341</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>136397.76787</v>
+        <v>160086.21514</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>102268.19328</v>
+        <v>127535.47063</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>116565.83766</v>
+        <v>142998.81536</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>137640.6858</v>
+        <v>170052.38991</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>203850.59112</v>
+        <v>231933.13763</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>240587.07552</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>279268.54294</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>251449.183</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-8593.798989999999</v>
+        <v>-16230.62293</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-12004.67314</v>
+        <v>-18717.85171</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-15185.70951</v>
+        <v>-18951.51056</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-17178.63981</v>
+        <v>-18256.15968</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-23413.59699</v>
+        <v>-29640.03601</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-27867.82691</v>
+        <v>-45209.65793</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-35715.33899</v>
+        <v>-47403.99111</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-56291.36562</v>
+        <v>-66732.57433</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-59699.22944</v>
+        <v>-78618.46547999998</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-90565.48824999999</v>
+        <v>-99553.65513</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-108716.36256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-129323.61446</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-168562.435</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2845.0731</v>
+        <v>46635.51688</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2697.07979</v>
+        <v>4103.89193</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2489.35579</v>
+        <v>10645.38309</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1488.1733</v>
+        <v>13791.77081</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2407.43145</v>
+        <v>43746.75816</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>3021.52912</v>
+        <v>49507.58257</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3588.31287</v>
+        <v>17667.07535</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4889.68181</v>
+        <v>19295.3928</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>4874.49858</v>
+        <v>19283.27574</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>12438.2635</v>
+        <v>42168.2388</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>11993.6586</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>48810.35015</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>57090.505</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1.38389</v>
@@ -1781,10 +1792,10 @@
         <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0.00752</v>
+        <v>395.09686</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>0</v>
+        <v>557.149</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>2e-05</v>
@@ -1793,19 +1804,24 @@
         <v>2e-05</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>1.3</v>
+        <v>355.39191</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>0.30782</v>
+        <v>606.5965799999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0.1219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>412.03334</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>413.27802</v>
+        <v>790.4014299999999</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>607.70838</v>
+        <v>1153.62631</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>181.23358</v>
+        <v>2323.99843</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>143.93139</v>
+        <v>2603.47328</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>190.14037</v>
+        <v>6661.42931</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>425.87217</v>
+        <v>7006.8344</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>399.04331</v>
+        <v>4876.19154</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>382.196</v>
+        <v>5063.85292</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>467.12687</v>
+        <v>6255.557849999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1145.48925</v>
+        <v>5064.90414</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1531.87069</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>4777.73176</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>4730.42</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>53.54028</v>
@@ -1895,22 +1921,22 @@
         <v>1.06508</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>28.56961</v>
+        <v>36.9904</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>263.6088</v>
+        <v>264.6712</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>23.45314</v>
+        <v>24.69813</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>103.73071</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>0.03345</v>
+        <v>0.48499</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>25.62452</v>
+        <v>81.60781</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>17.27053</v>
@@ -1918,23 +1944,28 @@
       <c r="M29" s="48" t="n">
         <v>70.40407</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>499.895</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>0</v>
+        <v>7.50203</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>16.564</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>163.85439</v>
+        <v>4996.12952</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>18.87576</v>
+        <v>4851.15089</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>88.41</v>
@@ -1943,103 +1974,118 @@
         <v>88.41125</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>92.07373</v>
+        <v>157.33361</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>105.79517</v>
+        <v>191.57624</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>88.41</v>
+        <v>329.96872</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>132.83233</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>137.22904</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1419.56021</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>174.086</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>43.34711</v>
+        <v>63.70789</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>48.92716</v>
+        <v>52.60674</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>27.99202</v>
+        <v>28.74183</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>42.57437</v>
+        <v>260.30157</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>17.79838</v>
+        <v>24.89213</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>23.74945</v>
+        <v>4035.44071</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>153.88079</v>
+        <v>174.78458</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>38.80617</v>
+        <v>53.21071000000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>20.65834</v>
+        <v>77.19816</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>64.64801</v>
+        <v>2997.30717</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>26.77287</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>10274.1181</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>417.054</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>392.40849</v>
+        <v>42919.58229000001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>239.40707</v>
+        <v>567.4517000000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>701.0867500000001</v>
+        <v>941.2639099999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>394.81364</v>
+        <v>2747.10614</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>474.55997</v>
+        <v>34072.88464</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>491.56209</v>
+        <v>25427.25614</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>963.8814199999999</v>
+        <v>7784.60806</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>845.96173</v>
+        <v>8180.36516</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>829.02331</v>
+        <v>5073.5482</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5729.60246</v>
+        <v>18186.50214</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>3164.68507</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>15084.32131</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>35285.607</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2060,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>67.60056</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>24.9755</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>4.88753</v>
@@ -2111,133 +2162,153 @@
         <v>155.37024</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>234.49997</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1936.22778</v>
+        <v>2794.51154</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1744.6213</v>
+        <v>2273.7913</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>1411.75585</v>
+        <v>2351.8162</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>790.42663</v>
+        <v>3223.76663</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1301.09446</v>
+        <v>2167.56207</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1941.37314</v>
+        <v>12340.68506</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1827.14585</v>
+        <v>4454.269230000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3420.69985</v>
+        <v>5709.71334</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>3280.76767</v>
+        <v>6948.415220000001</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>5188.242859999999</v>
+        <v>15002.95567</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>7060.90496</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>16537.68139</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>15983.443</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2258.12142</v>
+        <v>2992.02809</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2030.00776</v>
+        <v>2332.57786</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1373.88734</v>
+        <v>2495.41151</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1588.4353</v>
+        <v>4386.631969999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1366.77915</v>
+        <v>36612.69809</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1550.43916</v>
+        <v>29753.77025</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1753.57264</v>
+        <v>9173.452670000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2444.47172</v>
+        <v>11387.03745</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1549.40944</v>
+        <v>8766.793519999999</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>11996.80339</v>
+        <v>72524.91470000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5503.17476</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>34026.63824</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>20720.235</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>91.23598</v>
+        <v>100.46761</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>96.68101999999999</v>
+        <v>97.87008999999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>136.90333</v>
+        <v>141.01608</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>96.25467</v>
+        <v>166.10507</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>53.30803</v>
+        <v>104.75051</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>258.49832</v>
+        <v>288.30445</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>127.9214</v>
+        <v>136.56576</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>89.16633999999999</v>
+        <v>126.30206</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>110.41501</v>
+        <v>182.78716</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>265.72694</v>
+        <v>448.19179</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>331.67781</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>372.4813</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>245.014</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>36.03332</v>
+        <v>53.34925</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>493.76649</v>
@@ -2252,28 +2323,33 @@
         <v>32.83099</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>51.01462</v>
+        <v>51.16942</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>374.31437</v>
+        <v>419.05328</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>561.8378100000001</v>
+        <v>843.77374</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>39.31178</v>
+        <v>177.63339</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>274.63542</v>
+        <v>590.9121699999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1130.94434</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>2356.48925</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>423.305</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2.04852</v>
@@ -2285,10 +2361,10 @@
         <v>2.13927</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>8.154159999999999</v>
+        <v>20.81535</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>25.11596</v>
+        <v>25.32976</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>175.85204</v>
@@ -2300,58 +2376,68 @@
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0</v>
+        <v>448.65419</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>0</v>
+        <v>3.44068</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>13.22305</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>25.941</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>322.61855</v>
+        <v>653.48561</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>216.90002</v>
+        <v>395.07728</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>394.04521</v>
+        <v>1418.61446</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>246.84374</v>
+        <v>2797.64656</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>522.95029</v>
+        <v>35512.86851</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>553.7205300000001</v>
+        <v>24777.18665</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>744.88314</v>
+        <v>6401.61357</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>621.00085</v>
+        <v>8875.00628</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>535.93181</v>
+        <v>6630.21303</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>10337.2484</v>
+        <v>69537.65570999999</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2175.65676</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>28980.53482</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>17761.184</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0.00205</v>
@@ -2386,20 +2472,25 @@
       <c r="M41" s="48" t="n">
         <v>42.10548</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>149.402</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>7.179270000000001</v>
+        <v>7.179900000000001</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>3.88415</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>10.52479</v>
+        <v>10.52663</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>2.17603</v>
@@ -2425,251 +2516,286 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1799.00373</v>
+        <v>2175.49515</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1217.74873</v>
+        <v>1340.9525</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>786.6046899999999</v>
+        <v>879.44502</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1226.64653</v>
+        <v>1391.52879</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>728.66837</v>
+        <v>933.0128100000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>508.14766</v>
+        <v>4458.0517</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>493.68963</v>
+        <v>2203.45596</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1172.46672</v>
+        <v>1541.95537</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>863.7508399999999</v>
+        <v>1327.50575</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1119.19243</v>
+        <v>1944.71415</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1822.79037</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>2261.80434</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>2115.389</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1557.73974</v>
+        <v>50169.36859999999</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1112.6921</v>
+        <v>2329.72632</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1628.40401</v>
+        <v>4528.14121</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>1740.88046</v>
+        <v>3321.27065</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2447.3089</v>
+        <v>10185.5007</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2863.71569</v>
+        <v>9417.151260000002</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3093.77747</v>
+        <v>6619.37225</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3781.16341</v>
+        <v>7795.43823</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>5419.46658</v>
+        <v>13096.08075</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>17394.74815</v>
+        <v>29322.00397</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>19102.1993</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>30879.89988</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>31897.41</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1431.91895</v>
+        <v>4374.736019999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1068.72661</v>
+        <v>2285.76083</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1556.25249</v>
+        <v>4451.480030000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>1712.34915</v>
+        <v>3276.7338</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2326.33628</v>
+        <v>10064.52808</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2684.44411</v>
+        <v>9154.091339999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2931.2904</v>
+        <v>6407.59247</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3636.47333</v>
+        <v>7620.6828</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>5110.93844</v>
+        <v>12120.29955</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>17079.22445</v>
+        <v>25764.25807</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>18628.69114</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>29708.07568</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>31544.65</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>125.82079</v>
+        <v>45794.63258</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>43.96549</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>72.15151999999999</v>
+        <v>76.66117999999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>28.53131</v>
+        <v>44.53685</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>120.97262</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>179.27158</v>
+        <v>263.05992</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>162.48707</v>
+        <v>211.77978</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>144.69008</v>
+        <v>174.75543</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>308.52814</v>
+        <v>975.7812000000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>315.5237</v>
+        <v>3557.7459</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>473.50816</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1171.8242</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>352.76</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-9564.58705</v>
+        <v>-22756.50274</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-12450.29321</v>
+        <v>-19276.26396</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-15698.64507</v>
+        <v>-15329.68019</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-19019.78227</v>
+        <v>-12172.29149</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-24820.25359</v>
+        <v>-32691.47664</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-29260.45264</v>
+        <v>-34872.99687</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-36974.37622999999</v>
+        <v>-45529.74068</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-57627.31894</v>
+        <v>-66619.65720999999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-61793.60687999999</v>
+        <v>-81198.06400999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-107518.77629</v>
+        <v>-159232.335</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-121328.07802</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-145419.80243</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-164089.575</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1053.992</v>
+        <v>1775.45197</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>866.2169699999999</v>
+        <v>1104.34619</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4216.28371</v>
+        <v>4828.55851</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1983.83424</v>
+        <v>13815.33117</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>2386.60834</v>
+        <v>3683.17795</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3656.22081</v>
+        <v>6392.22396</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4882.27754</v>
+        <v>6486.63335</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>6008.00597</v>
+        <v>11475.17008</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>7119.39219</v>
+        <v>8938.435099999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>17629.61347</v>
+        <v>18704.80863</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>15085.60263</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>69809.40993000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>28755.382</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>3.70701</v>
+        <v>9.558810000000001</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>6.5</v>
+        <v>7.78468</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>2.09468</v>
@@ -2681,118 +2807,133 @@
         <v>163.83108</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>17.47466</v>
+        <v>19.91604</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>89.30244999999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>78.55757000000001</v>
+        <v>78.55816</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>18.60071</v>
+        <v>18.94148</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>160.01391</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>96.66417</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>245.826</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1050.28499</v>
+        <v>1765.89316</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>859.7169699999999</v>
+        <v>1096.56151</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4214.18903</v>
+        <v>4826.46383</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1961.37061</v>
+        <v>13792.86754</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2222.77726</v>
+        <v>3519.34687</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3638.74615</v>
+        <v>6372.30792</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>4792.97509</v>
+        <v>6397.3309</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>5929.4484</v>
+        <v>11396.61192</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>7100.791480000001</v>
+        <v>8919.493619999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>17469.59956</v>
+        <v>18544.79472</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>15085.40263</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>69712.74576000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>28509.556</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2331.93727</v>
+        <v>2973.19243</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2061.70514</v>
+        <v>2823.7144</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>11361.13396</v>
+        <v>15282.28615</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3829.3756</v>
+        <v>5695.479679999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4065.1372</v>
+        <v>5140.74684</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>8612.243930000001</v>
+        <v>13117.60587</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>8489.851379999998</v>
+        <v>9647.111140000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>8998.899640000001</v>
+        <v>13174.99113</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>33790.402</v>
+        <v>36826.86928</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>22009.31273</v>
+        <v>28748.35299</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>15774.05416</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>19980.19666</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>16330.699</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>4.99036</v>
+        <v>232.45557</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>0</v>
+        <v>413.14025</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>78.77834</v>
+        <v>332.79544</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>28.861</v>
+        <v>343.48111</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>138.20376</v>
@@ -2804,214 +2945,242 @@
         <v>492.69077</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>308.25248</v>
+        <v>606.0823</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>304.01007</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>796.75669</v>
+        <v>815.66373</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>750.33044</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>773.4064599999999</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1122.578</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>353.86627</v>
+        <v>382.71208</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>116.93019</v>
+        <v>158.26583</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>87.41872000000001</v>
+        <v>94.5615</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>330.48597</v>
+        <v>1573.87881</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>130.79912</v>
+        <v>274.11559</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>138.16361</v>
+        <v>148.24497</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1167.38149</v>
+        <v>1250.22487</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>165.51934</v>
+        <v>246.77074</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>73.23368999999998</v>
+        <v>115.68818</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1463.88875</v>
+        <v>1698.17589</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>394.54439</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1243.79751</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>989.4880000000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1973.08064</v>
+        <v>2358.02478</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1944.77495</v>
+        <v>2252.30832</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>11194.9369</v>
+        <v>14854.92921</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3470.02863</v>
+        <v>3778.11976</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3796.13432</v>
+        <v>4728.42749</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>8430.54725</v>
+        <v>12925.82783</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6829.779119999999</v>
+        <v>7904.1955</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>8525.12782</v>
+        <v>12322.13809</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>33413.15824</v>
+        <v>36407.17103</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>19748.66729</v>
+        <v>26234.51337</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>14629.17933</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>17962.99269</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>14218.633</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-10842.53232</v>
+        <v>-23954.2432</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-13645.78138</v>
+        <v>-20995.63217</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-22843.49532</v>
+        <v>-25783.40783</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-20865.32363</v>
+        <v>-4052.44</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-26498.78245</v>
+        <v>-34149.04553</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-34216.47576</v>
+        <v>-41598.37878</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-40581.95007</v>
+        <v>-48690.21847</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-60618.21261</v>
+        <v>-68319.47825999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-88464.61669</v>
+        <v>-109086.49819</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-111898.47555</v>
+        <v>-169275.87936</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-122016.52955</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-95590.58916</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-151664.892</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1089.65714</v>
+        <v>1257.21301</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1180.0278</v>
+        <v>1503.86452</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1800.69613</v>
+        <v>2218.58731</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1505.3529</v>
+        <v>1838.75446</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1679.74547</v>
+        <v>2144.68441</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2001.15953</v>
+        <v>3056.2218</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>2174.65316</v>
+        <v>3287.84887</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1766.68616</v>
+        <v>2915.62937</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1543.51564</v>
+        <v>2661.6393</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>4143.99825</v>
+        <v>5874.90231</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>4510.17712</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>6894.426570000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>11987.892</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-11932.18946</v>
+        <v>-25211.45621</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-14825.80918</v>
+        <v>-22499.49669</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-24644.19145</v>
+        <v>-28001.99514</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-22370.67653</v>
+        <v>-5891.194460000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-28178.52792</v>
+        <v>-36293.72994</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-36217.63529</v>
+        <v>-44654.60058</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-42756.60323</v>
+        <v>-51978.06734</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-62384.89877</v>
+        <v>-71235.10763</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-90008.13233000001</v>
+        <v>-111748.13749</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-116042.4738</v>
+        <v>-175150.78167</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-126526.70667</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-102485.01573</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-163652.784</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1630</v>
+        <v>1673</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1672</v>
+        <v>1731</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1746</v>
+        <v>1824</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1733</v>
+        <v>1811</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1928</v>
+        <v>2035</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2052</v>
+        <v>2182</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2095</v>
+        <v>2279</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2167</v>
+        <v>2359</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2267</v>
+        <v>2516</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2585</v>
+        <v>2785</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2771</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3097</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3291</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>